--- a/class_grades.xlsx
+++ b/class_grades.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\VS STUDIO CODE\AIDA-1\datasets\LABORATORY_01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6D8D2836-1C06-4AC4-BA51-38DD66240DE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E88B86A4-2BB2-432F-B422-AB3BE6CACC57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,12 +32,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>id</t>
   </si>
   <si>
     <t>prelim_grades</t>
@@ -969,18 +966,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R23" sqref="R23"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -993,466 +992,382 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>94.96</v>
+      </c>
+      <c r="C2" s="1">
+        <v>95.26</v>
+      </c>
+      <c r="D2" s="1">
+        <v>92.219200000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B3" s="1">
         <v>94.96</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C3" s="1">
         <v>95.26</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D3" s="1">
+        <v>92.779200000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1">
+        <v>78.173333299999996</v>
+      </c>
+      <c r="C4" s="1">
+        <v>94.36</v>
+      </c>
+      <c r="D4" s="1">
+        <v>84.32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>78.173333299999996</v>
+      </c>
+      <c r="C5" s="1">
+        <v>81.372</v>
+      </c>
+      <c r="D5" s="1">
+        <v>84.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>94.96</v>
+      </c>
+      <c r="C6" s="1">
+        <v>95.26</v>
+      </c>
+      <c r="D6" s="1">
         <v>92.219200000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="1">
+        <v>84.826666700000004</v>
+      </c>
+      <c r="C7" s="1">
+        <v>92.484999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>83.5792</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="1">
+        <v>93.98</v>
+      </c>
+      <c r="C8" s="1">
+        <v>97.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>95.652799999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="1">
+        <v>60.788200000000003</v>
+      </c>
+      <c r="C9" s="1">
+        <v>68</v>
+      </c>
+      <c r="D9" s="1">
+        <v>83.867199999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1">
+        <v>94.306666699999994</v>
+      </c>
+      <c r="C10" s="1">
+        <v>82</v>
+      </c>
+      <c r="D10" s="1">
+        <v>84.147199999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>96.406666700000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>82</v>
+      </c>
+      <c r="D11" s="1">
+        <v>84.147199999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>86.926666699999998</v>
+      </c>
+      <c r="C12" s="1">
+        <v>92.484999999999999</v>
+      </c>
+      <c r="D12" s="1">
+        <v>82.779200000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>78.173333299999996</v>
+      </c>
+      <c r="C13" s="1">
+        <v>94.36</v>
+      </c>
+      <c r="D13" s="1">
+        <v>84.32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>94.306666699999994</v>
+      </c>
+      <c r="C14" s="1">
+        <v>82</v>
+      </c>
+      <c r="D14" s="1">
+        <v>84.147199999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>78.173333299999996</v>
+      </c>
+      <c r="C15" s="1">
+        <v>94.36</v>
+      </c>
+      <c r="D15" s="1">
+        <v>84.32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>84.826666700000004</v>
+      </c>
+      <c r="C16" s="1">
+        <v>92.484999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>82.779200000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>84.826666700000004</v>
+      </c>
+      <c r="C17" s="1">
+        <v>87.685000000000002</v>
+      </c>
+      <c r="D17" s="1">
+        <v>83.867199999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>93.98</v>
+      </c>
+      <c r="C18" s="1">
+        <v>97.3</v>
+      </c>
+      <c r="D18" s="1">
+        <v>95.652799999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>79.806666699999994</v>
+      </c>
+      <c r="C19" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>81.279200000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>75.406666700000002</v>
+      </c>
+      <c r="C20" s="1">
+        <v>82</v>
+      </c>
+      <c r="D20" s="1">
+        <v>82.547200000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>69.313999999999993</v>
+      </c>
+      <c r="C21" s="1">
+        <v>87.685000000000002</v>
+      </c>
+      <c r="D21" s="1">
+        <v>50.335999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>93.98</v>
+      </c>
+      <c r="C22" s="1">
+        <v>97.3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>95.652799999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>79.806666699999994</v>
+      </c>
+      <c r="C23" s="1">
+        <v>83.5</v>
+      </c>
+      <c r="D23" s="1">
+        <v>81.279200000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>84.826666700000004</v>
+      </c>
+      <c r="C24" s="1">
+        <v>92.484999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>82.779200000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
         <v>94.96</v>
       </c>
-      <c r="D3" s="1">
+      <c r="C25" s="1">
         <v>95.26</v>
       </c>
-      <c r="E3" s="1">
-        <v>92.779200000000003</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>78.173333299999996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>94.36</v>
-      </c>
-      <c r="E4" s="1">
-        <v>84.32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>78.173333299999996</v>
-      </c>
-      <c r="D5" s="1">
-        <v>81.372</v>
-      </c>
-      <c r="E5" s="1">
-        <v>84.64</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>94.96</v>
-      </c>
-      <c r="D6" s="1">
-        <v>95.26</v>
-      </c>
-      <c r="E6" s="1">
+      <c r="D25" s="1">
         <v>92.219200000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>84.826666700000004</v>
-      </c>
-      <c r="D7" s="1">
-        <v>92.484999999999999</v>
-      </c>
-      <c r="E7" s="1">
-        <v>83.5792</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>79.806666699999994</v>
+      </c>
+      <c r="C26" s="1">
+        <v>87.46</v>
+      </c>
+      <c r="D26" s="1">
+        <v>81.279200000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
         <v>93.98</v>
       </c>
-      <c r="D8" s="1">
+      <c r="C27" s="1">
         <v>97.3</v>
       </c>
-      <c r="E8" s="1">
-        <v>95.652799999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>60.788200000000003</v>
-      </c>
-      <c r="D9" s="1">
-        <v>68</v>
-      </c>
-      <c r="E9" s="1">
-        <v>83.867199999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>94.306666699999994</v>
-      </c>
-      <c r="D10" s="1">
-        <v>82</v>
-      </c>
-      <c r="E10" s="1">
-        <v>84.147199999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>96.406666700000002</v>
-      </c>
-      <c r="D11" s="1">
-        <v>82</v>
-      </c>
-      <c r="E11" s="1">
-        <v>84.147199999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>86.926666699999998</v>
-      </c>
-      <c r="D12" s="1">
-        <v>92.484999999999999</v>
-      </c>
-      <c r="E12" s="1">
-        <v>82.779200000000003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>78.173333299999996</v>
-      </c>
-      <c r="D13" s="1">
-        <v>94.36</v>
-      </c>
-      <c r="E13" s="1">
-        <v>84.32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1">
-        <v>94.306666699999994</v>
-      </c>
-      <c r="D14" s="1">
-        <v>82</v>
-      </c>
-      <c r="E14" s="1">
-        <v>84.147199999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1">
-        <v>78.173333299999996</v>
-      </c>
-      <c r="D15" s="1">
-        <v>94.36</v>
-      </c>
-      <c r="E15" s="1">
-        <v>84.32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1">
-        <v>84.826666700000004</v>
-      </c>
-      <c r="D16" s="1">
-        <v>92.484999999999999</v>
-      </c>
-      <c r="E16" s="1">
-        <v>82.779200000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1">
-        <v>84.826666700000004</v>
-      </c>
-      <c r="D17" s="1">
-        <v>87.685000000000002</v>
-      </c>
-      <c r="E17" s="1">
-        <v>83.867199999999997</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1">
-        <v>93.98</v>
-      </c>
-      <c r="D18" s="1">
-        <v>97.3</v>
-      </c>
-      <c r="E18" s="1">
-        <v>95.652799999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1">
-        <v>79.806666699999994</v>
-      </c>
-      <c r="D19" s="1">
-        <v>83.5</v>
-      </c>
-      <c r="E19" s="1">
-        <v>81.279200000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1">
-        <v>75.406666700000002</v>
-      </c>
-      <c r="D20" s="1">
-        <v>82</v>
-      </c>
-      <c r="E20" s="1">
-        <v>82.547200000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>69.313999999999993</v>
-      </c>
-      <c r="D21" s="1">
-        <v>87.685000000000002</v>
-      </c>
-      <c r="E21" s="1">
-        <v>50.335999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1">
-        <v>93.98</v>
-      </c>
-      <c r="D22" s="1">
-        <v>97.3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>95.652799999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1">
-        <v>79.806666699999994</v>
-      </c>
-      <c r="D23" s="1">
-        <v>83.5</v>
-      </c>
-      <c r="E23" s="1">
-        <v>81.279200000000003</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1">
-        <v>84.826666700000004</v>
-      </c>
-      <c r="D24" s="1">
-        <v>92.484999999999999</v>
-      </c>
-      <c r="E24" s="1">
-        <v>82.779200000000003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1">
-        <v>94.96</v>
-      </c>
-      <c r="D25" s="1">
-        <v>95.26</v>
-      </c>
-      <c r="E25" s="1">
-        <v>92.219200000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1">
-        <v>79.806666699999994</v>
-      </c>
-      <c r="D26" s="1">
-        <v>87.46</v>
-      </c>
-      <c r="E26" s="1">
-        <v>81.279200000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
+      <c r="D27" s="1">
+        <v>94.852800000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
         <v>30</v>
       </c>
-      <c r="B27">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1">
-        <v>93.98</v>
-      </c>
-      <c r="D27" s="1">
-        <v>97.3</v>
-      </c>
-      <c r="E27" s="1">
-        <v>94.852800000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28">
-        <v>27</v>
+      <c r="B28" s="1">
+        <v>86.626666700000001</v>
       </c>
       <c r="C28" s="1">
-        <v>86.626666700000001</v>
+        <v>84.85</v>
       </c>
       <c r="D28" s="1">
-        <v>84.85</v>
-      </c>
-      <c r="E28" s="1">
         <v>83.867199999999997</v>
       </c>
     </row>
